--- a/data/Calibration/Calibration_continents_20240615.xlsx
+++ b/data/Calibration/Calibration_continents_20240615.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjDir\Jip\2BURP\data\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1A1020-C808-4744-B15E-6118C43799FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA96151F-6045-452D-ADC8-B793B34E681E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{006DA30D-115F-446D-A152-7320C782B741}"/>
   </bookViews>
@@ -567,7 +567,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
